--- a/仕様/仕様/仕様書/キャラクター仕様＆ステージ仕様.xlsx
+++ b/仕様/仕様/仕様書/キャラクター仕様＆ステージ仕様.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7740" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7725" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ナイト" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="124">
   <si>
     <t>お名前</t>
     <phoneticPr fontId="1"/>
@@ -583,6 +583,22 @@
     <t>侵入するとコインを10枚落とし初期位置に戻ります
 いわゆる川に落ちたってやつですな
 ※ジャンプで超えることができる幅にする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３等身のクロウズらしきクロウズさんの出現</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投げたイメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投げたイメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　投げたイメージ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1156,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1332,6 +1348,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2163,6 +2182,64 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533687</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>24148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28862</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="環状矢印 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10557296" flipH="1">
+          <a:off x="2591087" y="5186698"/>
+          <a:ext cx="1552575" cy="1671628"/>
+        </a:xfrm>
+        <a:prstGeom prst="circularArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>505181</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -2271,15 +2348,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>133707</xdr:colOff>
+      <xdr:colOff>171807</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>57510</xdr:rowOff>
+      <xdr:rowOff>124185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>390163</xdr:colOff>
+      <xdr:colOff>428263</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>9885</xdr:rowOff>
+      <xdr:rowOff>76560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2288,7 +2365,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="18384266">
-          <a:off x="3800472" y="6010995"/>
+          <a:off x="3838572" y="6077670"/>
           <a:ext cx="466725" cy="942256"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -2542,25 +2619,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="22" name="図 21"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2573,14 +2650,298 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10125075" y="866775"/>
-          <a:ext cx="2438400" cy="2438400"/>
+          <a:off x="10039350" y="971550"/>
+          <a:ext cx="2381250" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>119458</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>683815</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>153988</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="曲線コネクタ 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7596187" y="2627709"/>
+          <a:ext cx="12700" cy="1250157"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5662504"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>145473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>646402</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3381375" y="2479098"/>
+          <a:ext cx="8227" cy="559377"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>116204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>93344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="上カーブ矢印 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7693702">
+          <a:off x="2242185" y="7639049"/>
+          <a:ext cx="1520190" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4705"/>
+            <a:gd name="adj2" fmla="val 39573"/>
+            <a:gd name="adj3" fmla="val 29419"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317958</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>105226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546558</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134998</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="上カーブ矢印 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="14400000" flipH="1">
+          <a:off x="4789347" y="6625687"/>
+          <a:ext cx="1572822" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4705"/>
+            <a:gd name="adj2" fmla="val 39573"/>
+            <a:gd name="adj3" fmla="val 29419"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="環状矢印 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2571749" y="5076825"/>
+          <a:ext cx="1552575" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="circularArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4607,15 +4968,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4624,8 +4985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6677025" y="1685925"/>
-          <a:ext cx="1514475" cy="1514475"/>
+          <a:off x="6619875" y="1609725"/>
+          <a:ext cx="1638300" cy="1638300"/>
         </a:xfrm>
         <a:prstGeom prst="donut">
           <a:avLst/>
@@ -4951,26 +5312,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>107155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>161923</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPr id="10" name="図 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4983,52 +5344,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10067925" y="847725"/>
-          <a:ext cx="2438400" cy="2438400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9686925" y="6724650"/>
-          <a:ext cx="3848099" cy="4810124"/>
+          <a:off x="10458451" y="897730"/>
+          <a:ext cx="1895474" cy="2369343"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5640,6 +5957,112 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="右矢印 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3286125" y="2419350"/>
+          <a:ext cx="352425" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>263274</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>233686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685126</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>244053</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="曲線コネクタ 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="2183516" y="2018669"/>
+          <a:ext cx="10367" cy="1107652"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6764252"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7010,8 +7433,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>265810</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7021,7 +7444,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3095625" y="6858000"/>
-          <a:ext cx="599185" cy="1209675"/>
+          <a:ext cx="599185" cy="1838325"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -7098,6 +7521,62 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="385555" cy="1079526"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="6943725"/>
+          <a:ext cx="385555" cy="1079526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>移動制御可能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7204,7 +7683,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -7471,7 +7950,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -7582,7 +8061,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -7693,7 +8172,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -8269,15 +8748,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8286,7 +8765,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3257550" y="6629400"/>
+          <a:off x="3238500" y="6619875"/>
           <a:ext cx="771525" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -8708,6 +9187,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058401" y="838199"/>
+          <a:ext cx="2495549" cy="2495549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9175,6 +9698,104 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>65957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>538161</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7381875" y="1885232"/>
+          <a:ext cx="14286" cy="572218"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>426668</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>433386</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>194413</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3855668" y="4990382"/>
+          <a:ext cx="6718" cy="3195506"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9461,13 +10082,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>393122</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180109</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9476,8 +10097,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6305550" y="5753100"/>
-          <a:ext cx="3002972" cy="1904134"/>
+          <a:off x="6305550" y="5753099"/>
+          <a:ext cx="3002972" cy="3352801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9504,7 +10125,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>相手にぶつかるまで直線に飛んでいく</a:t>
+            <a:t>相手にぶつかるまでスピード</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1.25</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>倍になり</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -9512,32 +10141,125 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>相手にぶつかると強力な横薙ぎで一閃する</a:t>
+            <a:t>飛んでいく</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>相手にぶつからなかった場合は何も起こらない</a:t>
+            <a:t>相手にぶつかると強力な縦切り</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>横薙ぎで</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>吹っ飛ばし前方強</a:t>
+            <a:t>攻撃する</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>吹っ飛ばし強</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>この状態は５秒間継続し当たらなかったら</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>３匹の音符くんを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マリオカートの亀の甲羅見たいに配置</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アニマを守る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>なお、一度攻撃を受けるか相手に触れると</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>消滅する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>音符君に触れると吹っ飛ばし弱</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>飛び道具、攻撃が触れた場合はアニマへの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ダメージを肩代わりする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9698,6 +10420,62 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="385555" cy="1079526"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4219575" y="7915275"/>
+          <a:ext cx="385555" cy="1079526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>移動制御可能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9993,8 +10771,8 @@
   </sheetPr>
   <dimension ref="B1:S38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10042,7 +10820,7 @@
       <c r="M2" s="50"/>
       <c r="N2" s="51"/>
       <c r="O2" s="35" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
@@ -10405,7 +11183,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="18"/>
       <c r="O19" s="20" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
@@ -11045,7 +11823,7 @@
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="62"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
@@ -11533,72 +12311,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="66"/>
     </row>
     <row r="2" spans="2:18" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="73"/>
     </row>
     <row r="3" spans="2:18" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="76"/>
     </row>
     <row r="4" spans="2:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:18" ht="394.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -11624,35 +12402,35 @@
     </row>
     <row r="8" spans="2:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="81" t="s">
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="84"/>
     </row>
     <row r="10" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="84" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="85" t="s">
         <v>112</v>
       </c>
       <c r="H10" s="57"/>
@@ -11668,11 +12446,11 @@
       <c r="R10" s="57"/>
     </row>
     <row r="11" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
@@ -11687,11 +12465,11 @@
       <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -11706,11 +12484,11 @@
       <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
@@ -11725,12 +12503,12 @@
       <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77" t="s">
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78" t="s">
         <v>113</v>
       </c>
       <c r="H14" s="23"/>
@@ -11746,11 +12524,11 @@
       <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
@@ -11765,11 +12543,11 @@
       <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -11784,11 +12562,11 @@
       <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -11803,120 +12581,120 @@
       <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77" t="s">
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
     </row>
     <row r="19" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
     </row>
     <row r="20" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
     </row>
     <row r="21" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
     </row>
     <row r="22" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
     </row>
     <row r="23" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
     </row>
     <row r="31" spans="2:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="2:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -11965,7 +12743,7 @@
   </sheetPr>
   <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -11975,72 +12753,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="66"/>
     </row>
     <row r="2" spans="2:18" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="73"/>
     </row>
     <row r="3" spans="2:18" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="73" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="76"/>
     </row>
     <row r="4" spans="2:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:18" ht="394.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -12066,35 +12844,35 @@
     </row>
     <row r="8" spans="2:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="81" t="s">
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="84"/>
     </row>
     <row r="10" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="84" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="85" t="s">
         <v>119</v>
       </c>
       <c r="H10" s="57"/>
@@ -12110,11 +12888,11 @@
       <c r="R10" s="57"/>
     </row>
     <row r="11" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
@@ -12129,11 +12907,11 @@
       <c r="R11" s="23"/>
     </row>
     <row r="12" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -12148,11 +12926,11 @@
       <c r="R12" s="23"/>
     </row>
     <row r="13" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
@@ -12167,12 +12945,12 @@
       <c r="R13" s="23"/>
     </row>
     <row r="14" spans="2:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
@@ -12186,11 +12964,11 @@
       <c r="R14" s="23"/>
     </row>
     <row r="15" spans="2:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
@@ -12205,11 +12983,11 @@
       <c r="R15" s="23"/>
     </row>
     <row r="16" spans="2:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -12224,11 +13002,11 @@
       <c r="R16" s="23"/>
     </row>
     <row r="17" spans="2:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -12243,118 +13021,118 @@
       <c r="R17" s="23"/>
     </row>
     <row r="18" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
     </row>
     <row r="19" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
     </row>
     <row r="20" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
     </row>
     <row r="21" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="78"/>
     </row>
     <row r="22" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="78"/>
     </row>
     <row r="23" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="78"/>
     </row>
     <row r="31" spans="2:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="2:18" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -12403,8 +13181,8 @@
   </sheetPr>
   <dimension ref="B1:S38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12452,7 +13230,7 @@
       <c r="M2" s="50"/>
       <c r="N2" s="51"/>
       <c r="O2" s="35" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
@@ -12815,7 +13593,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="18"/>
       <c r="O19" s="20" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
@@ -13181,7 +13959,7 @@
   <dimension ref="C1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:N38"/>
+      <selection activeCell="C5" sqref="C5:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13589,7 +14367,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="18"/>
       <c r="O19" s="20" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
@@ -14363,7 +15141,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="18"/>
       <c r="O19" s="31" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
@@ -14729,7 +15507,7 @@
   <dimension ref="B1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C17" sqref="C17:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15138,7 +15916,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="18"/>
       <c r="O19" s="20" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
@@ -15503,9 +16281,7 @@
   </sheetPr>
   <dimension ref="C1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:N38"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15910,7 +16686,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="18"/>
       <c r="O19" s="20" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
@@ -16275,9 +17051,7 @@
   </sheetPr>
   <dimension ref="B1:S38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16324,7 +17098,7 @@
       <c r="M2" s="50"/>
       <c r="N2" s="51"/>
       <c r="O2" s="35" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
@@ -16687,7 +17461,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="18"/>
       <c r="O19" s="20" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
@@ -17050,10 +17824,10 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="C1:S38"/>
+  <dimension ref="C1:Y38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17063,7 +17837,7 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:25" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C1" s="47" t="s">
         <v>3</v>
       </c>
@@ -17080,7 +17854,7 @@
       <c r="N1" s="48"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="35" t="s">
         <v>0</v>
       </c>
@@ -17105,7 +17879,7 @@
       <c r="R2" s="26"/>
       <c r="S2" s="27"/>
     </row>
-    <row r="3" spans="3:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
@@ -17127,8 +17901,15 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="18"/>
-    </row>
-    <row r="4" spans="3:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="U3" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+    </row>
+    <row r="4" spans="3:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C4" s="31" t="s">
         <v>87</v>
       </c>
@@ -17150,8 +17931,13 @@
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
       <c r="S4" s="18"/>
-    </row>
-    <row r="5" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+    </row>
+    <row r="5" spans="3:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -17169,8 +17955,13 @@
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="18"/>
-    </row>
-    <row r="6" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="59"/>
+      <c r="Y5" s="59"/>
+    </row>
+    <row r="6" spans="3:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="16"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -17188,8 +17979,13 @@
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="S6" s="18"/>
-    </row>
-    <row r="7" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+    </row>
+    <row r="7" spans="3:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -17207,8 +18003,13 @@
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="18"/>
-    </row>
-    <row r="8" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+    </row>
+    <row r="8" spans="3:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -17226,8 +18027,13 @@
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="18"/>
-    </row>
-    <row r="9" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+    </row>
+    <row r="9" spans="3:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -17245,8 +18051,13 @@
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="18"/>
-    </row>
-    <row r="10" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+    </row>
+    <row r="10" spans="3:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -17265,7 +18076,7 @@
       <c r="R10" s="17"/>
       <c r="S10" s="18"/>
     </row>
-    <row r="11" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -17284,7 +18095,7 @@
       <c r="R11" s="17"/>
       <c r="S11" s="18"/>
     </row>
-    <row r="12" spans="3:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
@@ -17303,7 +18114,7 @@
       <c r="R12" s="13"/>
       <c r="S12" s="15"/>
     </row>
-    <row r="13" spans="3:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
@@ -17324,7 +18135,7 @@
       <c r="R13" s="32"/>
       <c r="S13" s="34"/>
     </row>
-    <row r="14" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="22" t="s">
         <v>58</v>
       </c>
@@ -17351,7 +18162,7 @@
       </c>
       <c r="S14" s="27"/>
     </row>
-    <row r="15" spans="3:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:25" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C15" s="38"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
@@ -17374,7 +18185,7 @@
       </c>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="3:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="35" t="s">
         <v>89</v>
       </c>
@@ -17461,7 +18272,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="18"/>
       <c r="O19" s="20" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
@@ -17782,7 +18593,8 @@
       <c r="N38" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="U3:Y9"/>
     <mergeCell ref="C1:N1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:N2"/>
@@ -17826,8 +18638,8 @@
   </sheetPr>
   <dimension ref="C1:S38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:N38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20:S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18174,20 +18986,20 @@
       <c r="S16" s="12"/>
     </row>
     <row r="17" spans="3:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="62"/>
       <c r="O17" s="10" t="s">
         <v>12</v>
       </c>
@@ -18235,7 +19047,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="18"/>
       <c r="O19" s="20" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
